--- a/TAFBursa/src/test/resources/testdata/TestData-1.xlsx
+++ b/TAFBursa/src/test/resources/testdata/TestData-1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\TAF_Bursa\src\test\resources\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\TAF_Bursa\Bursa\TAFBursa\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF882DE-B1E9-4B58-8D58-03A40ADFBD9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21493FA-EDD9-4368-B32B-7737F49C8773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="29">
   <si>
     <t>TC_ID</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>johnsmith@msystems.com</t>
+  </si>
+  <si>
+    <t>TC007</t>
   </si>
 </sst>
 </file>
@@ -465,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -727,6 +730,41 @@
         <v>13</v>
       </c>
     </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="1">
+        <v>486134004</v>
+      </c>
+      <c r="I8" s="1">
+        <v>845331997</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -734,21 +772,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010019C1A9FAA49BF4449ADE76CDC075C7F5" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3a393aba220127146e34890ffbc10061">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b3e6f329-e8f8-45c7-8f84-82c37f9198db" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b4b6a3ca308aa7d4841ff17610162030" ns2:_="">
     <xsd:import namespace="b3e6f329-e8f8-45c7-8f84-82c37f9198db"/>
@@ -880,24 +903,22 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F58AADA9-E1CD-46BA-BC2E-336746DDF2FB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E20E1F7-854D-4389-BC46-A2C23A80814D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8499AB60-682F-4FED-99C8-ABF174BD16C5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -913,4 +934,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E20E1F7-854D-4389-BC46-A2C23A80814D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F58AADA9-E1CD-46BA-BC2E-336746DDF2FB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>